--- a/xlsx/杰里米·边沁_intext.xlsx
+++ b/xlsx/杰里米·边沁_intext.xlsx
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%96%AF%E5%9C%96%E4%BA%9E%E7%89%B9%C2%B7%E7%A9%86%E5%8B%92</t>
   </si>
   <si>
-    <t>約翰·斯圖亞特·穆勒</t>
+    <t>约翰·斯图亚特·穆勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E5%B0%94%C2%B7%E7%A6%8F%E6%9F%AF</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>君主專制</t>
+    <t>君主专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%B8</t>
   </si>
   <si>
-    <t>普選</t>
+    <t>普选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8F%B2%E9%83%BD%E8%8F%AF%C2%B7%E5%BD%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>約翰·史都華·彌爾</t>
+    <t>约翰·史都华·弥尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%AC%A7%E6%96%87</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%89%98%E9%82%A6%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>烏托邦社會主義</t>
+    <t>乌托邦社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%96%AF%E6%9F%8F%E6%A0%BC%E7%97%87</t>
   </si>
   <si>
-    <t>亞斯柏格症</t>
+    <t>亚斯柏格症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%A4%A7%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
